--- a/WebDriverJavaProject/TestData/TestData.xlsx
+++ b/WebDriverJavaProject/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs112524\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs112524\git\WebDriverJavaProjectold\WebDriverJavaProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="15900" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,22 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>name1</t>
-  </si>
-  <si>
     <t>pass1</t>
   </si>
   <si>
-    <t>name2</t>
-  </si>
-  <si>
     <t>pass2</t>
   </si>
   <si>
-    <t>name3</t>
-  </si>
-  <si>
     <t>pass3</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>zzzz</t>
   </si>
 </sst>
 </file>
@@ -362,33 +362,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
